--- a/CourseOutline.xlsx
+++ b/CourseOutline.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -147,9 +147,6 @@
     <t>9:15-9:30</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9:15-13</t>
-  </si>
-  <si>
     <t>14-17</t>
   </si>
   <si>
@@ -171,32 +168,13 @@
     <t>KS &amp; LB</t>
   </si>
   <si>
-    <r>
-      <t>Lunch (Pentland Link) [</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Friday at 12:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
     <t>KS</t>
   </si>
   <si>
     <t>LB</t>
+  </si>
+  <si>
+    <t>Lunch (Pentland Link) - not on Friday</t>
   </si>
 </sst>
 </file>
@@ -287,13 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -302,35 +274,41 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,108 +593,108 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1"/>
@@ -724,45 +702,45 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1"/>
@@ -770,17 +748,17 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="1"/>
@@ -788,45 +766,45 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="15"/>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="1"/>
@@ -834,17 +812,17 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="1"/>
@@ -852,45 +830,45 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="1"/>
@@ -898,49 +876,49 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="1"/>
@@ -948,45 +926,45 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
